--- a/src/assets/datos_generales.xlsx
+++ b/src/assets/datos_generales.xlsx
@@ -1,35 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cencarnacion\develop\timbrado\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC09AD9-386D-4403-87E6-DC95AF1CCF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nomina_12" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
-  <si>
-    <t>CFDI 3.3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+  <si>
+    <t>CFDI 3.2</t>
   </si>
   <si>
     <t>COMPLEMENTO NOMINA</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>GENERAL</t>
   </si>
   <si>
@@ -256,29 +259,69 @@
   </si>
   <si>
     <t>DESCRIPCION_PAGO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>SITUACION_ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>SEGURIDAD_SOCIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,62 +330,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFDDD9C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFB3A2C7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor rgb="FFEEECE1"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FFFAC090"/>
+        <bgColor rgb="FFE6B9B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor rgb="FFC6D9F1"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor rgb="FFE6B9B8"/>
+        <bgColor rgb="FFFAC090"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor rgb="FFD99694"/>
+        <bgColor rgb="FFB3A2C7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor rgb="FFB3A2C7"/>
+        <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FFC3D69B"/>
+        <bgColor rgb="FFDDD9C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558ED5"/>
+        <bgColor rgb="FF7F7F7F"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,50 +419,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,6 +500,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEEECE1"/>
+      <rgbColor rgb="FFDDD9C3"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFD99694"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFC6D9F1"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFE6B9B8"/>
+      <rgbColor rgb="FFB3A2C7"/>
+      <rgbColor rgb="FFFAC090"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FFA6A6A6"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF1A1AA6"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -464,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -717,625 +875,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="34.5703125" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" customWidth="1"/>
+    <col min="23" max="23" width="33.140625" customWidth="1"/>
+    <col min="24" max="24" width="36.140625" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" customWidth="1"/>
+    <col min="27" max="28" width="23.7109375" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" customWidth="1"/>
+    <col min="30" max="30" width="25" customWidth="1"/>
+    <col min="31" max="31" width="24.42578125" customWidth="1"/>
+    <col min="32" max="32" width="48.42578125" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" customWidth="1"/>
+    <col min="37" max="37" width="34.5703125" customWidth="1"/>
+    <col min="38" max="38" width="36.5703125" customWidth="1"/>
+    <col min="39" max="39" width="24.85546875" customWidth="1"/>
+    <col min="40" max="40" width="25" customWidth="1"/>
+    <col min="41" max="41" width="43.5703125" customWidth="1"/>
+    <col min="42" max="42" width="44" customWidth="1"/>
+    <col min="43" max="43" width="25.140625" customWidth="1"/>
+    <col min="44" max="44" width="23.7109375" customWidth="1"/>
+    <col min="45" max="45" width="36.7109375" customWidth="1"/>
+    <col min="46" max="46" width="38.5703125" customWidth="1"/>
+    <col min="47" max="47" width="17.5703125" customWidth="1"/>
+    <col min="48" max="48" width="25" customWidth="1"/>
+    <col min="49" max="49" width="26.7109375" customWidth="1"/>
+    <col min="50" max="50" width="30.140625" customWidth="1"/>
+    <col min="51" max="51" width="28.42578125" customWidth="1"/>
+    <col min="52" max="52" width="13.7109375" customWidth="1"/>
+    <col min="53" max="53" width="22.85546875" customWidth="1"/>
+    <col min="54" max="54" width="30" customWidth="1"/>
+    <col min="55" max="56" width="26.5703125" customWidth="1"/>
+    <col min="57" max="57" width="17.28515625" customWidth="1"/>
+    <col min="58" max="58" width="35.42578125" customWidth="1"/>
+    <col min="59" max="59" width="13.85546875" customWidth="1"/>
+    <col min="60" max="60" width="13.28515625" customWidth="1"/>
+    <col min="61" max="61" width="22.28515625" customWidth="1"/>
+    <col min="62" max="62" width="33.5703125" customWidth="1"/>
+    <col min="63" max="63" width="23.5703125" customWidth="1"/>
+    <col min="64" max="64" width="15" customWidth="1"/>
+    <col min="65" max="65" width="28.42578125" customWidth="1"/>
+    <col min="66" max="66" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="5" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="AO2" s="6"/>
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="13" t="s">
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="15" t="s">
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ2" s="6"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AM4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AN4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AP4" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AQ4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AR4" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AS4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AU4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AV4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AX4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="BA4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BB4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BC4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BE4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="BE4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BG4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BI4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BJ4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BK4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BL4" s="26" t="s">
         <v>78</v>
+      </c>
+      <c r="BM4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN4" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="14">
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="K1:BE1"/>
-    <mergeCell ref="BF1:BK1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1347,10 +1516,12 @@
     <mergeCell ref="AU2:AX2"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/assets/datos_generales.xlsx
+++ b/src/assets/datos_generales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cencarnacion\develop\timbrado\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cencarnacion\develop\timbrado_js\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC09AD9-386D-4403-87E6-DC95AF1CCF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB767D-D555-4F20-93A5-99C3C4AFE664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>CFDI 3.2</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>SEGURIDAD_SOCIAL</t>
+  </si>
+  <si>
+    <t>CP_RECEPTOR</t>
+  </si>
+  <si>
+    <t>HORARIO</t>
   </si>
 </sst>
 </file>
@@ -419,64 +425,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -876,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN4"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB5" sqref="A5:XFD264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -946,9 +948,12 @@
     <col min="64" max="64" width="15" customWidth="1"/>
     <col min="65" max="65" width="28.42578125" customWidth="1"/>
     <col min="66" max="66" width="21.140625" customWidth="1"/>
+    <col min="67" max="67" width="20.85546875" customWidth="1"/>
+    <col min="68" max="68" width="32.42578125" customWidth="1"/>
+    <col min="69" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1021,7 @@
       <c r="BI1" s="16"/>
       <c r="BJ1" s="16"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1111,7 @@
       <c r="BI2" s="18"/>
       <c r="BJ2" s="18"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1142,7 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
@@ -1158,7 +1163,7 @@
       <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
       <c r="S3" t="s">
@@ -1167,337 +1172,349 @@
       <c r="T3" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" t="s">
         <v>15</v>
       </c>
       <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="BF3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BH3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BJ3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BL3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN3" s="21" t="s">
+      <c r="W3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="BP3" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:68" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AE4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AH4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AJ4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AK4" s="26" t="s">
+      <c r="AK4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="26" t="s">
+      <c r="AL4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AM4" s="25" t="s">
+      <c r="AM4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="26" t="s">
+      <c r="AO4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AP4" s="26" t="s">
+      <c r="AP4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AQ4" s="23" t="s">
+      <c r="AQ4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AR4" s="23" t="s">
+      <c r="AR4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AS4" s="26" t="s">
+      <c r="AS4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AT4" s="26" t="s">
+      <c r="AT4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AU4" s="23" t="s">
+      <c r="AU4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AV4" s="25" t="s">
+      <c r="AV4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AW4" s="23" t="s">
+      <c r="AW4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AX4" s="23" t="s">
+      <c r="AX4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AY4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AZ4" s="23" t="s">
+      <c r="AZ4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BA4" s="23" t="s">
+      <c r="BA4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="BB4" s="23" t="s">
+      <c r="BB4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="BC4" s="23" t="s">
+      <c r="BC4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BD4" s="25" t="s">
+      <c r="BD4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="BE4" s="23" t="s">
+      <c r="BE4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BF4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="BG4" s="26" t="s">
+      <c r="BG4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BH4" s="26" t="s">
+      <c r="BH4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BI4" s="26" t="s">
+      <c r="BI4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="26" t="s">
+      <c r="BJ4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="BK4" s="26" t="s">
+      <c r="BK4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="BL4" s="26" t="s">
+      <c r="BL4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BM4" s="26" t="s">
+      <c r="BM4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="BN4" s="26" t="s">
+      <c r="BN4" s="24" t="s">
         <v>80</v>
+      </c>
+      <c r="BO4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP4" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
